--- a/data/GRNmap_input_workbooks/14-gene_25-edges_NW_dCIN5_fam_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/14-gene_25-edges_NW_dCIN5_fam_Sigmoid_estimation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Documents\GRNmap\dCIN5_GRNmap\dCIN5_14-gene_25-edges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Documents\GRNmap\dCIN5_GRNmap\14-gene_25-edges_GRNmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,9 +106,6 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>estiamte_params</t>
-  </si>
-  <si>
     <t>make_graphs</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>L-curve</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -337,6 +337,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +653,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +781,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,17 +948,17 @@
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="4">
+        <v>80</v>
+      </c>
+      <c r="B9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4">
+        <v>81</v>
+      </c>
+      <c r="B10" s="10">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
@@ -975,9 +976,9 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10">
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
@@ -995,7 +996,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -1015,7 +1016,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -1035,7 +1036,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>15</v>
@@ -1059,22 +1060,22 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1087,7 +1088,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1146,10 +1147,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1281,10 +1282,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,7 +1432,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -2106,7 +2107,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -2162,10 +2163,10 @@
         <v>-0.1191</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="6">
         <v>-7.5700000000000003E-2</v>
@@ -2194,7 +2195,7 @@
         <v>-0.3155</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6">
         <v>-0.80289999999999995</v>
@@ -2203,10 +2204,10 @@
         <v>0.5141</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="6">
         <v>0.50960000000000005</v>
@@ -2235,7 +2236,7 @@
         <v>0.96209999999999996</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6">
         <v>0.31009999999999999</v>
@@ -2244,10 +2245,10 @@
         <v>-0.15890000000000001</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="H4" s="6">
         <v>0.48599999999999999</v>
@@ -2276,7 +2277,7 @@
         <v>6.3299999999999995E-2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6">
         <v>-1.9531000000000001</v>
@@ -2285,10 +2286,10 @@
         <v>-0.21510000000000001</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="H5" s="6">
         <v>-2.2646000000000002</v>
@@ -2317,7 +2318,7 @@
         <v>-0.91690000000000005</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6">
         <v>0.42699999999999999</v>
@@ -2326,10 +2327,10 @@
         <v>-7.1199999999999999E-2</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H6" s="6">
         <v>0.39100000000000001</v>
@@ -2358,7 +2359,7 @@
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6">
         <v>0.29420000000000002</v>
@@ -2367,10 +2368,10 @@
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="H7" s="6">
         <v>0.33739999999999998</v>
@@ -2399,7 +2400,7 @@
         <v>0.57640000000000002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6">
         <v>0.24909999999999999</v>
@@ -2408,10 +2409,10 @@
         <v>0.90359999999999996</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H8" s="6">
         <v>-9.9699999999999997E-2</v>
@@ -2440,7 +2441,7 @@
         <v>0.58789999999999998</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6">
         <v>0.36570000000000003</v>
@@ -2449,10 +2450,10 @@
         <v>0.68759999999999999</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="6">
         <v>0.30730000000000002</v>
@@ -2481,7 +2482,7 @@
         <v>1.0931999999999999</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="6">
         <v>1.1254999999999999</v>
@@ -2490,10 +2491,10 @@
         <v>0.62629999999999997</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="H10" s="6">
         <v>1.6525000000000001</v>
@@ -2522,7 +2523,7 @@
         <v>1.2589999999999999</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="6">
         <v>0.91600000000000004</v>
@@ -2531,10 +2532,10 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="6">
         <v>0.56589999999999996</v>
@@ -2572,10 +2573,10 @@
         <v>-0.54890000000000005</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="6">
         <v>2.5700000000000001E-2</v>
@@ -2604,7 +2605,7 @@
         <v>-0.1331</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6">
         <v>-0.32140000000000002</v>
@@ -2613,10 +2614,10 @@
         <v>-1.8200000000000001E-2</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H13" s="6">
         <v>0.22489999999999999</v>
@@ -2645,7 +2646,7 @@
         <v>-1.2421</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6">
         <v>-0.73499999999999999</v>
@@ -2654,10 +2655,10 @@
         <v>0.29349999999999998</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="6">
         <v>1.0021</v>
@@ -2686,7 +2687,7 @@
         <v>-1.3433999999999999</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="6">
         <v>-1.7083999999999999</v>
@@ -2695,10 +2696,10 @@
         <v>-0.28220000000000001</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="H15" s="6">
         <v>-0.11550000000000001</v>
@@ -2736,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -3366,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -3996,7 +3997,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>15</v>

--- a/data/GRNmap_input_workbooks/14-gene_25-edges_NW_dCIN5_fam_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/14-gene_25-edges_NW_dCIN5_fam_Sigmoid_estimation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Documents\GRNmap\dCIN5_GRNmap\14-gene_25-edges_GRNmap\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13395" windowHeight="9015" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13395" windowHeight="9015" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
   <si>
     <t>cols regulators/rows targets</t>
   </si>
@@ -106,6 +101,9 @@
     <t>Sigmoid</t>
   </si>
   <si>
+    <t>estiamte_params</t>
+  </si>
+  <si>
     <t>make_graphs</t>
   </si>
   <si>
@@ -151,130 +149,7 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>-0.383</t>
-  </si>
-  <si>
-    <t>0.2693</t>
-  </si>
-  <si>
-    <t>1.4649</t>
-  </si>
-  <si>
-    <t>-0.7654</t>
-  </si>
-  <si>
-    <t>-1.1456</t>
-  </si>
-  <si>
-    <t>-0.3518</t>
-  </si>
-  <si>
-    <t>0.5869</t>
-  </si>
-  <si>
-    <t>0.0341</t>
-  </si>
-  <si>
-    <t>0.1712</t>
-  </si>
-  <si>
-    <t>-1.463</t>
-  </si>
-  <si>
-    <t>0.3025</t>
-  </si>
-  <si>
-    <t>1.2958</t>
-  </si>
-  <si>
-    <t>1.5911</t>
-  </si>
-  <si>
-    <t>1.2566</t>
-  </si>
-  <si>
-    <t>0.3325</t>
-  </si>
-  <si>
-    <t>0.6703</t>
-  </si>
-  <si>
-    <t>0.7164</t>
-  </si>
-  <si>
-    <t>-0.5489</t>
-  </si>
-  <si>
-    <t>-0.5302</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>1.5125</t>
-  </si>
-  <si>
-    <t>-0.0775</t>
-  </si>
-  <si>
-    <t>-0.522</t>
-  </si>
-  <si>
-    <t>0.4726</t>
-  </si>
-  <si>
-    <t>0.5256</t>
-  </si>
-  <si>
-    <t>-0.3325</t>
-  </si>
-  <si>
-    <t>1.0717</t>
-  </si>
-  <si>
-    <t>-1.9025</t>
-  </si>
-  <si>
-    <t>-0.4406</t>
-  </si>
-  <si>
-    <t>2.5266</t>
-  </si>
-  <si>
-    <t>0.4041</t>
-  </si>
-  <si>
-    <t>0.1802</t>
-  </si>
-  <si>
-    <t>0.8526</t>
-  </si>
-  <si>
-    <t>-0.4332</t>
-  </si>
-  <si>
-    <t>0.3344</t>
-  </si>
-  <si>
-    <t>-1.2684</t>
-  </si>
-  <si>
-    <t>-0.8782</t>
-  </si>
-  <si>
-    <t>-0.9354</t>
-  </si>
-  <si>
-    <t>-0.0589</t>
-  </si>
-  <si>
-    <t>-0.7158</t>
-  </si>
-  <si>
     <t>L-curve</t>
-  </si>
-  <si>
-    <t>estimate_params</t>
   </si>
 </sst>
 </file>
@@ -326,18 +201,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,133 +518,137 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>0.19259999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>0.27179999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>0.4078</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>0.69320000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>0.17319999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>0.72960000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -780,263 +656,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>2E-3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>100000000</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="4">
         <v>100000000</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>15</v>
@@ -1047,48 +785,30 @@
       <c r="D14" s="2">
         <v>60</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1139,126 +859,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -1275,144 +998,147 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="2">
         <v>0.10050000000000001</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="2">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="2">
         <v>0.16120000000000001</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="2">
         <v>0.13589999999999999</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="2">
         <v>0.2039</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="2">
         <v>0.34660000000000002</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="2">
         <v>0.14149999999999999</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="2">
         <v>0.16120000000000001</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="2">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="2">
         <v>0.36480000000000001</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1425,668 +1151,671 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>30</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>60</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="2">
         <v>-0.13730000000000001</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="2">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="2">
         <v>1.2385999999999999</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="2">
         <v>1.3909</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="2">
         <v>-0.4224</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="2">
         <v>0.54610000000000003</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="2">
         <v>1.0285</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="2">
         <v>1.2338</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="2">
         <v>2.2159</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="2">
         <v>2.1796000000000002</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="2">
         <v>0.84470000000000001</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="2">
         <v>2.4687000000000001</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="2">
         <v>1.4784999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <v>0.50639999999999996</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="2">
         <v>0.89049999999999996</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <v>-0.1242</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <v>-1.1405000000000001</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="2">
         <v>0.38369999999999999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="2">
         <v>0.85250000000000004</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="2">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="2">
         <v>-0.32729999999999998</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="2">
         <v>-0.29820000000000002</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="2">
         <v>-0.315</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="2">
         <v>-0.59989999999999999</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="2">
         <v>-0.94469999999999998</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="2">
         <v>-0.35849999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="2">
         <v>-1.3141</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="2">
         <v>0.39389999999999997</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="2">
         <v>0.1439</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="2">
         <v>-0.51329999999999998</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="2">
         <v>-0.70040000000000002</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="2">
         <v>-0.2467</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="2">
         <v>1.4085000000000001</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="2">
         <v>0.97330000000000005</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="2">
         <v>0.65039999999999998</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="2">
         <v>0.20250000000000001</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="2">
         <v>0.89239999999999997</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="2">
         <v>0.90069999999999995</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="2">
         <v>0.1953</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="2">
         <v>0.51380000000000003</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="2">
         <v>1.9214</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="2">
         <v>-0.88590000000000002</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="2">
         <v>-2.6541999999999999</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="2">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="2">
         <v>1.5184</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="2">
         <v>0.27939999999999998</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="2">
         <v>-2.5135000000000001</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="2">
         <v>-1.1181000000000001</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="2">
         <v>0.2225</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="2">
         <v>-1.0353000000000001</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="2">
         <v>-0.2074</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="2">
         <v>-1.8463000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>0.30580000000000002</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="2">
         <v>0.2392</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="2">
         <v>1.8398000000000001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="2">
         <v>1.2493000000000001</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="2">
         <v>-0.95250000000000001</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="2">
         <v>1.405</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="2">
         <v>1.3109</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="2">
         <v>1.2568999999999999</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="2">
         <v>1.9007000000000001</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="2">
         <v>1.4816</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="2">
         <v>0.93799999999999994</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="2">
         <v>1.8391</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="2">
         <v>2.2172000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <v>-0.36580000000000001</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="2">
         <v>0.37209999999999999</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="2">
         <v>-0.58630000000000004</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="2">
         <v>0.9587</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="2">
         <v>1.2197</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="2">
         <v>0.89229999999999998</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="2">
         <v>1.2168000000000001</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="2">
         <v>0.89400000000000002</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="2">
         <v>0.99239999999999995</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="2">
         <v>2.0937999999999999</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="2">
         <v>0.36459999999999998</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="2">
         <v>0.54920000000000002</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="2">
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="2">
         <v>-1.0625</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="2">
         <v>0.92459999999999998</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="2">
         <v>0.1666</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="2">
         <v>-0.26960000000000001</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="2">
         <v>0.35849999999999999</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="2">
         <v>0.95140000000000002</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="2">
         <v>0.12330000000000001</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="2">
         <v>1.2802</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="2">
         <v>-0.68079999999999996</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="2">
         <v>0.76339999999999997</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="2">
         <v>1.3451</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="2">
         <v>0.83550000000000002</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="2">
         <v>-0.12709999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="2">
         <v>-0.26690000000000003</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="2">
         <v>0.37019999999999997</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="2">
         <v>-0.61339999999999995</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="2">
         <v>1.004</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="2">
         <v>-0.14119999999999999</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="2">
         <v>-0.37090000000000001</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="2">
         <v>0.47349999999999998</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="2">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="2">
         <v>0.61880000000000002</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="2">
         <v>-0.2072</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="2">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="2">
         <v>0.55589999999999995</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="2">
         <v>0.58950000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="2">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="2">
         <v>2.1524999999999999</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="2">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="2">
         <v>-0.4526</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="2">
         <v>0.69169999999999998</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="2">
         <v>0.53420000000000001</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="2">
         <v>2.2597999999999998</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="2">
         <v>-0.92320000000000002</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="2">
         <v>0.82930000000000004</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="2">
         <v>1.3828</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="2">
         <v>0.90039999999999998</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="2">
         <v>0.88880000000000003</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="2">
         <v>-1.0367</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="2">
         <v>-1.6758</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="2">
         <v>-0.49859999999999999</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="2">
         <v>0.38</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="2">
         <v>-0.12740000000000001</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="2">
         <v>-2.5268999999999999</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="2">
         <v>-1.9189000000000001</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="2">
         <v>0.54430000000000001</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="2">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="2">
         <v>4.07E-2</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="2">
         <v>-1.3691</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="2">
         <v>-2.6627000000000001</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="2">
         <v>0.20280000000000001</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="2">
         <v>-0.27479999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="2">
         <v>-0.92859999999999998</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>-2.3E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="2">
         <v>-0.36509999999999998</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="2">
         <v>-0.32779999999999998</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="2">
         <v>-0.4798</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="2">
         <v>0.20469999999999999</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="2">
         <v>0.32219999999999999</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="2">
         <v>-0.23769999999999999</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="2">
         <v>-0.63690000000000002</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="2">
         <v>-1.4226000000000001</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="2">
         <v>-0.52939999999999998</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="2">
         <v>0.29959999999999998</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="2">
         <v>0.28120000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="2">
         <v>-0.76749999999999996</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <v>-0.20330000000000001</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="2">
         <v>-0.91059999999999997</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="2">
         <v>-0.72340000000000004</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="2">
         <v>-1.9049</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="2">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="2">
         <v>-0.25700000000000001</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="2">
         <v>-0.16869999999999999</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="2">
         <v>-1.0667</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="2">
         <v>0.1028</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="2">
         <v>-2.86E-2</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="2">
         <v>0.4798</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="2">
         <v>-1.1269</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="2">
         <v>-0.21</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="2">
         <v>-0.66759999999999997</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="2">
         <v>-1.6963999999999999</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="2">
         <v>-0.34960000000000002</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="2">
         <v>1.2371000000000001</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="2">
         <v>0.94320000000000004</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="2">
         <v>-0.36209999999999998</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="2">
         <v>-1.8086</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="2">
         <v>0.66169999999999995</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="2">
         <v>0.61919999999999997</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="2">
         <v>0.20499999999999999</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="2">
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="2">
         <v>-0.20250000000000001</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="2">
         <v>-1.0587</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="2">
         <v>-0.64019999999999999</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="2">
         <v>-2.2532000000000001</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="2">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="2">
         <v>-1.6116999999999999</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="2">
         <v>-0.104</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="2">
         <v>-0.1487</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="2">
         <v>-0.93940000000000001</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="2">
         <v>-0.59009999999999996</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="2">
         <v>0.13289999999999999</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="2">
         <v>-0.72219999999999995</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="2">
         <v>-0.51170000000000004</v>
       </c>
     </row>
@@ -2100,623 +1829,626 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>60</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>-0.66849999999999998</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>-0.40660000000000002</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>-0.43219999999999997</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>-0.1191</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="F2" s="7">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.26929999999999998</v>
+      </c>
+      <c r="H2" s="3">
         <v>-7.5700000000000003E-2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>0.59750000000000003</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>-0.3216</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>0.4778</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>-0.3155</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="7">
+        <v>1.4649000000000001</v>
+      </c>
+      <c r="D3" s="3">
         <v>-0.80289999999999995</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>0.5141</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="F3" s="7">
+        <v>-0.76539999999999997</v>
+      </c>
+      <c r="G3" s="7">
+        <v>-1.1456</v>
+      </c>
+      <c r="H3" s="3">
         <v>0.50960000000000005</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>-0.29570000000000002</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>-0.22570000000000001</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>-0.94040000000000001</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>-1.3326</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>0.96209999999999996</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="7">
+        <v>-0.3518</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.31009999999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>-0.15890000000000001</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="F4" s="7">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>0.43419999999999997</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>1.0717000000000001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>1.1548</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>0.54459999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="7">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="D5" s="3">
         <v>-1.9531000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>-0.21510000000000001</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="F5" s="7">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="H5" s="3">
         <v>-2.2646000000000002</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>1.4417</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>-1.2318</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>-0.14030000000000001</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>-1.9814000000000001</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>-1.2117</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>-0.91690000000000005</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="7">
+        <v>1.2958000000000001</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>-7.1199999999999999E-2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="F6" s="7">
+        <v>1.5911</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.2565999999999999</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>-0.31259999999999999</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>1.5823</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>2.7766999999999999</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>0.9466</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>1.4664999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="7">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.29420000000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="F7" s="7">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.33739999999999998</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>0.35539999999999999</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>1.2329000000000001</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>0.2175</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>-0.2056</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>0.57640000000000002</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="7">
+        <v>-0.54890000000000005</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.24909999999999999</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>0.90359999999999996</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="F8" s="7">
+        <v>-0.5302</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H8" s="3">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>1.0787</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>-0.1371</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>0.40110000000000001</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>0.58789999999999998</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="7">
+        <v>1.5125</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.36570000000000003</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>0.68759999999999999</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="F9" s="7">
+        <v>-7.7499999999999999E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="H9" s="3">
         <v>0.30730000000000002</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>-0.36349999999999999</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>-0.12959999999999999</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>1.7000999999999999</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>0.14030000000000001</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>1.0931999999999999</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="7">
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="D10" s="3">
         <v>1.1254999999999999</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>0.62629999999999997</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="F10" s="7">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="G10" s="7">
+        <v>-0.33250000000000002</v>
+      </c>
+      <c r="H10" s="3">
         <v>1.6525000000000001</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>-0.1135</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>0.61</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>0.67210000000000003</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>0.95820000000000005</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>0.31269999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>1.2589999999999999</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="7">
+        <v>1.0717000000000001</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="F11" s="7">
+        <v>-1.9025000000000001</v>
+      </c>
+      <c r="G11" s="7">
+        <v>-0.44059999999999999</v>
+      </c>
+      <c r="H11" s="3">
         <v>0.56589999999999996</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>1.258</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>0.49270000000000003</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>0.29249999999999998</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>1.6588000000000001</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>1.1318999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>-0.4763</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>-0.45290000000000002</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>-0.33360000000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>-0.54890000000000005</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="F12" s="7">
+        <v>2.5266000000000002</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="H12" s="3">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>-0.2142</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>-0.31009999999999999</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>0.23119999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>-0.1331</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="7">
+        <v>0.1802</v>
+      </c>
+      <c r="D13" s="3">
         <v>-0.32140000000000002</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="F13" s="7">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="G13" s="7">
+        <v>-0.43319999999999997</v>
+      </c>
+      <c r="H13" s="3">
         <v>0.22489999999999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>-0.70350000000000001</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>-0.44190000000000002</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>0.92220000000000002</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>-1.2421</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="7">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="D14" s="3">
         <v>-0.73499999999999999</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>0.29349999999999998</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="F14" s="7">
+        <v>-1.2684</v>
+      </c>
+      <c r="G14" s="7">
+        <v>-0.87819999999999998</v>
+      </c>
+      <c r="H14" s="3">
         <v>1.0021</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>-0.76680000000000004</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>0.97960000000000003</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>-5.28E-2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>-0.86929999999999996</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>0.55789999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>-1.3433999999999999</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="7">
+        <v>-0.93540000000000001</v>
+      </c>
+      <c r="D15" s="3">
         <v>-1.7083999999999999</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="F15" s="7">
+        <v>-5.8900000000000001E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>-0.71579999999999999</v>
+      </c>
+      <c r="H15" s="3">
         <v>-0.11550000000000001</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>-2.4802</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>0.66569999999999996</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>0.53159999999999996</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>-1.3987000000000001</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>0.29849999999999999</v>
       </c>
     </row>
@@ -2730,623 +2462,626 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>60</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>1.452</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>0.36680000000000001</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>0.14649999999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>1.0023</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>1.6619999999999999</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>2.9944999999999999</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>1.3996</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>1.9426000000000001</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>0.29120000000000001</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>0.62819999999999998</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>3.2391000000000001</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>2.5788000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>-0.51839999999999997</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>1.3267</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>1.0101</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>-6.1600000000000002E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>0.36909999999999998</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>-0.19980000000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>1.1081000000000001</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>0.19889999999999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>1.6447000000000001</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>-1.6053999999999999</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>0.70450000000000002</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>0.76729999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>0.59570000000000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>0.85489999999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>-0.67589999999999995</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>0.63429999999999997</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>-8.6099999999999996E-2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>-1.0684</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>0.30230000000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>0.1085</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>-0.44600000000000001</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>0.80179999999999996</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>-0.161</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>3.3136000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>1.8683000000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>0.90639999999999998</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>0.2848</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>1.2425999999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>1.4451000000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>0.91479999999999995</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>-1.32E-2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>1.2979000000000001</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>0.10589999999999999</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>-0.29759999999999998</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>0.22559999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>0.97719999999999996</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>1.4618</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>-0.71560000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>0.78990000000000005</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>1.5734999999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>1.1125</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>1.1015999999999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>0.51459999999999995</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>1.3432999999999999</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>0.95009999999999994</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>1.5648</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>1.7134</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>0.54879999999999995</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>0.81589999999999996</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>-6.88E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>0.32479999999999998</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>0.32790000000000002</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>1.2747999999999999</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>0.54049999999999998</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>0.36120000000000002</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>0.48139999999999999</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>-8.1100000000000005E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>0.31580000000000003</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>0.80289999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>1.0774999999999999</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>-1.2575000000000001</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>0.96560000000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>0.16689999999999999</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>0.93940000000000001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>0.64170000000000005</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>0.58140000000000003</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>2.5089000000000001</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>0.85389999999999999</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>1.4608000000000001</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>0.77939999999999998</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>-0.28699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>1.8202</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>0.32590000000000002</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>-2.2749999999999999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>0.2167</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>0.64400000000000002</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>0.54649999999999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>-8.7300000000000003E-2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>0.53939999999999999</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>1.6167</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>2.0903</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>0.98519999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>-0.41570000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>1.2987</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1.3915999999999999</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>1.0549999999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>-0.64339999999999997</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>2.4701</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>2.3169</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>1.2747999999999999</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>1.2483</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>0.23849999999999999</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>1.2221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>0.8397</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>0.85729999999999995</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>0.22919999999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>0.6421</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>1.1875</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>0.21609999999999999</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>0.96419999999999995</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>0.7419</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>0.10879999999999999</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>0.65849999999999997</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>0.2671</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>0.1741</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>-0.5323</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>-1.2532000000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>-8.0500000000000002E-2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>-0.3044</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>0.44</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>-1.0186999999999999</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>-0.56210000000000004</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>-0.88380000000000003</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>0.9617</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>-0.89629999999999999</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>-0.27239999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>-0.52149999999999996</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>-1.3444</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>0.48070000000000002</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>-5.5100000000000003E-2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>-0.29949999999999999</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>-0.40570000000000001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>-0.4289</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>-0.1026</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>-0.99909999999999999</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>0.47510000000000002</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>0.2162</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>-0.70220000000000005</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>0.54079999999999995</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>-4.4299999999999999E-2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>0.54059999999999997</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>0.81179999999999997</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>0.91839999999999999</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>2.4355000000000002</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>1.1496</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>1.0065999999999999</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>-0.29620000000000002</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>0.35639999999999999</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>1.0390999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>0.45540000000000003</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>0.56440000000000001</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>-1.9400000000000001E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>0.82110000000000005</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>1.1649</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>0.37130000000000002</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>0.6099</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>0.92059999999999997</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>0.9647</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>0.49099999999999999</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>0.92530000000000001</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>1.2979000000000001</v>
       </c>
     </row>
@@ -3360,623 +3095,626 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>60</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>-0.39429999999999998</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>3.0979999999999999</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>-0.78180000000000005</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>0.53659999999999997</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>1.0477000000000001</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>1.9388000000000001</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>1.9984999999999999</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>1.948</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>2.8677999999999999</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>3.26</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>2.2513000000000001</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>1.9187000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>1.5094000000000001</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>0.40570000000000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>0.59989999999999999</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>1.2909999999999999</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>1.5787</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>-0.50419999999999998</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>1.659</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>1.728</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>0.4889</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>-0.29909999999999998</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>0.98629999999999995</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>0.95779999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>-0.41689999999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>0.6492</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>-0.12590000000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>0.71489999999999998</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>0.29320000000000002</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>-0.3901</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>0.2321</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>0.92379999999999995</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>0.31740000000000002</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>-2.52E-2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>1.0246</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>0.41020000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>-0.92030000000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>0.37859999999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>-0.81689999999999996</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>-1.4461999999999999</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>-0.30249999999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>-0.37269999999999998</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>-0.2195</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>-1.1638999999999999</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>0.26190000000000002</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>-0.52849999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>2.9630999999999998</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>1.0226999999999999</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>-1.8079000000000001</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>2.6496</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>1.8896999999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>1.3274999999999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>-2.4363000000000001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>1.3018000000000001</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>-0.26040000000000002</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>2.3205</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>-0.2676</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>0.15079999999999999</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>-0.49149999999999999</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>0.75170000000000003</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>0.12920000000000001</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>0.51680000000000004</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>0.4098</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>0.48970000000000002</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>0.37419999999999998</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>-0.43280000000000002</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>0.47270000000000001</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>1.0011000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>0.83460000000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>0.54579999999999995</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>-0.40350000000000003</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>0.5827</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>1.0075000000000001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>0.80379999999999996</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>1.1451</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>0.6532</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>1.4213</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>0.75490000000000002</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>0.33239999999999997</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>0.34039999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>0.94730000000000003</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>0.85960000000000003</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>-0.62880000000000003</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>0.19020000000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>-8.9499999999999996E-2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>2.07E-2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>-0.13739999999999999</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>0.23630000000000001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>0.48659999999999998</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>-0.49930000000000002</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>0.58530000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>0.89349999999999996</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>3.44E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>0.92530000000000001</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>0.8125</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>0.4466</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>0.3866</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>-0.1762</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>0.49059999999999998</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>0.49409999999999998</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>0.45229999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>-0.19409999999999999</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>-0.19769999999999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>0.32219999999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>-2.3199999999999998E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>0.40579999999999999</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>-0.84</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>0.4143</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>-6.6E-3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>0.154</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>-0.1119</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>0.41210000000000002</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>0.85699999999999998</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>0.39439999999999997</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>-1.01E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>-0.85629999999999995</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>-0.1573</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>-0.1171</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>-0.1361</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>0.3775</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>0.45390000000000003</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>0.33310000000000001</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>0.20960000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>-3.9300000000000002E-2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>0.14910000000000001</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>-0.96150000000000002</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>0.69450000000000001</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>-1.177</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>0.155</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>-1.3154999999999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>-0.11840000000000001</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>-1.0330999999999999</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>-0.74029999999999996</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>-0.87780000000000002</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>-0.54210000000000003</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>-1.4449000000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>-0.64190000000000003</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>-0.98599999999999999</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>-2.24E-2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>-0.44590000000000002</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>-0.13830000000000001</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>0.93240000000000001</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>1.2888999999999999</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>0.65710000000000002</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>0.97740000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>-1.7099</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>-1.3897999999999999</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>-2.1356000000000002</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>-1.6841999999999999</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>-0.12379999999999999</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>-1.0174000000000001</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>0.37</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>-1.6722999999999999</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>-0.25900000000000001</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>-0.20080000000000001</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>-1.5284</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>-1.0412999999999999</v>
       </c>
     </row>
@@ -3990,623 +3728,626 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>60</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>0.62390000000000001</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>0.81840000000000002</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>1.4916</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>-0.8397</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>0.88670000000000004</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>1.2386999999999999</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>2.2606000000000002</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>0.32929999999999998</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>1.2067000000000001</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>1.7983</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>-0.70660000000000001</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>1.0147999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>-0.53159999999999996</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>-0.22209999999999999</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>1.0726</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>-0.99180000000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>0.38919999999999999</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>0.33529999999999999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>-0.29570000000000002</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>-0.45029999999999998</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>0.28920000000000001</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>1.2637</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>-0.80569999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>-0.39379999999999998</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>-0.97989999999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>0.36030000000000001</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>-0.56820000000000004</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>-7.2800000000000004E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>-0.186</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>0.63060000000000005</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>0.29170000000000001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>-0.1706</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>0.29249999999999998</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>0.2944</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>-1.0325</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>-0.34420000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>0.89370000000000005</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>-1.5780000000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>-1.4498</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>-0.73839999999999995</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>-0.2666</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>-1.5417000000000001</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>-3.0545</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>1.8973</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>-0.88439999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>1.0058</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>2.0181</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>0.78879999999999995</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>-0.20660000000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>0.3846</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>0.1787</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>0.1767</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>0.48980000000000001</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>0.83540000000000003</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>0.46439999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>-0.12839999999999999</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>-0.26989999999999997</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>-0.22539999999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>0.74729999999999996</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>0.68830000000000002</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>-7.1499999999999994E-2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>1.3467</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>0.60419999999999996</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>1.385</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>0.1729</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>0.1439</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>0.90949999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>-0.32290000000000002</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>-0.37169999999999997</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>-0.80130000000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>0.4516</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>-0.37780000000000002</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>-0.32479999999999998</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>-0.47610000000000002</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>0.95050000000000001</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>-0.2303</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>-0.56030000000000002</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>1.2226999999999999</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>0.57889999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>0.42170000000000002</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>-1.5840000000000001</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>-2.2523</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>1.9428000000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>-1.5436000000000001</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>0.36599999999999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>1.2756000000000001</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>-0.16350000000000001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>-1.1823999999999999</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>1.5390999999999999</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>1.5142</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>1.2329000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>2.2441</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>0.49480000000000002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>-0.69450000000000001</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>-0.83460000000000001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>1.8561000000000001</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>-0.52869999999999995</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>-0.60660000000000003</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>0.99839999999999995</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>1.3966000000000001</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>-0.15140000000000001</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>-0.58509999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>1.5366</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>0.55740000000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1.0469999999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>1.0469999999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>0.29699999999999999</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>0.18429999999999999</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>0.15820000000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>0.2132</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>1.7097</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>0.61980000000000002</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>1.1648000000000001</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>1.1648000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>0.52490000000000003</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>0.1762</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>-0.16950000000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>0.33610000000000001</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>1.0117</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>-0.54710000000000003</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>-0.14910000000000001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>0.26079999999999998</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>0.74080000000000001</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>-0.57830000000000004</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>0.45569999999999999</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>0.52290000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>-1.5273000000000001</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>-0.48859999999999998</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>-4.7199999999999999E-2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>-0.37409999999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>-0.86550000000000005</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>-1.1638999999999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>-0.26279999999999998</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>-0.62990000000000002</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>0.30349999999999999</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>-0.54159999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>-0.182</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>-1.0702</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>-0.84470000000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>-1.0067999999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>0.1177</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>-0.35110000000000002</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>2.24E-2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>-0.61650000000000005</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>0.77029999999999998</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>-1.1442000000000001</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>-0.80579999999999996</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>0.14030000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>-2.4929000000000001</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>-0.45329999999999998</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>-0.22650000000000001</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>-1.1136999999999999</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>-0.91169999999999995</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>-0.248</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>-7.8299999999999995E-2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>-1.7543</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>-0.77810000000000001</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>-0.3231</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>0.2596</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>-2.0924</v>
       </c>
     </row>
@@ -4619,13 +4360,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4719,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4766,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4813,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4860,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4907,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4954,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5001,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5048,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5095,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5142,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5189,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -5236,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5283,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5339,13 +5081,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5392,7 +5135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5439,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5486,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5533,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5580,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5627,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5674,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5721,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5768,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5815,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5862,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5909,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -5956,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6003,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>

--- a/data/GRNmap_input_workbooks/14-gene_25-edges_NW_dCIN5_fam_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/14-gene_25-edges_NW_dCIN5_fam_Sigmoid_estimation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Documents\GRNmap\dCIN5_GRNmap\14-gene_25-edges_GRNmap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13395" windowHeight="9015" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13395" windowHeight="9015" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="dhmo1_log2_expression" sheetId="7" r:id="rId7"/>
     <sheet name="network" sheetId="10" r:id="rId8"/>
     <sheet name="network_weights" sheetId="9" r:id="rId9"/>
-    <sheet name="optimizaton_parameters" sheetId="11" r:id="rId10"/>
+    <sheet name="optimization_parameters" sheetId="11" r:id="rId10"/>
     <sheet name="threshold_b" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="82">
   <si>
     <t>cols regulators/rows targets</t>
   </si>
@@ -101,9 +106,6 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>estiamte_params</t>
-  </si>
-  <si>
     <t>make_graphs</t>
   </si>
   <si>
@@ -149,7 +151,130 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>L-curve</t>
+    <t>-0.383</t>
+  </si>
+  <si>
+    <t>0.2693</t>
+  </si>
+  <si>
+    <t>1.4649</t>
+  </si>
+  <si>
+    <t>-0.7654</t>
+  </si>
+  <si>
+    <t>-1.1456</t>
+  </si>
+  <si>
+    <t>-0.3518</t>
+  </si>
+  <si>
+    <t>0.5869</t>
+  </si>
+  <si>
+    <t>0.0341</t>
+  </si>
+  <si>
+    <t>0.1712</t>
+  </si>
+  <si>
+    <t>-1.463</t>
+  </si>
+  <si>
+    <t>0.3025</t>
+  </si>
+  <si>
+    <t>1.2958</t>
+  </si>
+  <si>
+    <t>1.5911</t>
+  </si>
+  <si>
+    <t>1.2566</t>
+  </si>
+  <si>
+    <t>0.3325</t>
+  </si>
+  <si>
+    <t>0.6703</t>
+  </si>
+  <si>
+    <t>0.7164</t>
+  </si>
+  <si>
+    <t>-0.5489</t>
+  </si>
+  <si>
+    <t>-0.5302</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>1.5125</t>
+  </si>
+  <si>
+    <t>-0.0775</t>
+  </si>
+  <si>
+    <t>-0.522</t>
+  </si>
+  <si>
+    <t>0.4726</t>
+  </si>
+  <si>
+    <t>0.5256</t>
+  </si>
+  <si>
+    <t>-0.3325</t>
+  </si>
+  <si>
+    <t>1.0717</t>
+  </si>
+  <si>
+    <t>-1.9025</t>
+  </si>
+  <si>
+    <t>-0.4406</t>
+  </si>
+  <si>
+    <t>2.5266</t>
+  </si>
+  <si>
+    <t>0.4041</t>
+  </si>
+  <si>
+    <t>0.1802</t>
+  </si>
+  <si>
+    <t>0.8526</t>
+  </si>
+  <si>
+    <t>-0.4332</t>
+  </si>
+  <si>
+    <t>0.3344</t>
+  </si>
+  <si>
+    <t>-1.2684</t>
+  </si>
+  <si>
+    <t>-0.8782</t>
+  </si>
+  <si>
+    <t>-0.9354</t>
+  </si>
+  <si>
+    <t>-0.0589</t>
+  </si>
+  <si>
+    <t>-0.7158</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -201,15 +326,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,137 +646,133 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>0.19259999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>0.27179999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>0.4078</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>0.69320000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>0.17319999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>0.72960000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -657,124 +781,262 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="4">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>15</v>
@@ -785,30 +1047,48 @@
       <c r="D14" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -860,128 +1140,125 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -998,147 +1275,144 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>0.10050000000000001</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <v>0.16120000000000001</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>0.13589999999999999</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>0.2039</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>0.34660000000000002</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="8">
         <v>0.14149999999999999</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>0.16120000000000001</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="8">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="8">
         <v>0.36480000000000001</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1151,671 +1425,668 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>15</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>15</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1">
         <v>30</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>30</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>30</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1">
         <v>30</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1">
         <v>60</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1">
         <v>60</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1">
         <v>60</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <v>-0.13730000000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="9">
         <v>1.2385999999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="9">
         <v>1.3909</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="9">
         <v>-0.4224</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
         <v>0.54610000000000003</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="9">
         <v>1.0285</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="9">
         <v>1.2338</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="9">
         <v>2.2159</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="9">
         <v>2.1796000000000002</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="9">
         <v>0.84470000000000001</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="9">
         <v>2.4687000000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="9">
         <v>1.4784999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>0.50639999999999996</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>0.89049999999999996</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <v>-0.1242</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>-1.1405000000000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="9">
         <v>0.38369999999999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
         <v>0.85250000000000004</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="9">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="9">
         <v>-0.32729999999999998</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="9">
         <v>-0.29820000000000002</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="9">
         <v>-0.315</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="9">
         <v>-0.59989999999999999</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="9">
         <v>-0.94469999999999998</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="9">
         <v>-0.35849999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>-1.3141</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>0.39389999999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <v>0.1439</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>-0.51329999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="9">
         <v>-0.70040000000000002</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <v>-0.2467</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="9">
         <v>1.4085000000000001</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="9">
         <v>0.97330000000000005</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="9">
         <v>0.65039999999999998</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="9">
         <v>0.20250000000000001</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="9">
         <v>0.89239999999999997</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="9">
         <v>0.90069999999999995</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="9">
         <v>0.1953</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>0.51380000000000003</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>1.9214</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>-0.88590000000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>-2.6541999999999999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="9">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="9">
         <v>1.5184</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="9">
         <v>0.27939999999999998</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="9">
         <v>-2.5135000000000001</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="9">
         <v>-1.1181000000000001</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="9">
         <v>0.2225</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="9">
         <v>-1.0353000000000001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="9">
         <v>-0.2074</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="9">
         <v>-1.8463000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>0.30580000000000002</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>0.2392</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>1.8398000000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="9">
         <v>1.2493000000000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="9">
         <v>-0.95250000000000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="9">
         <v>1.405</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="9">
         <v>1.3109</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="9">
         <v>1.2568999999999999</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="9">
         <v>1.9007000000000001</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="9">
         <v>1.4816</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="9">
         <v>0.93799999999999994</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="9">
         <v>1.8391</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="9">
         <v>2.2172000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>-0.36580000000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>0.37209999999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>-0.58630000000000004</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>0.9587</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="9">
         <v>1.2197</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="9">
         <v>0.89229999999999998</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="9">
         <v>1.2168000000000001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="9">
         <v>0.89400000000000002</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="9">
         <v>0.99239999999999995</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="9">
         <v>2.0937999999999999</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="9">
         <v>0.36459999999999998</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="9">
         <v>0.54920000000000002</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="9">
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="9">
         <v>-1.0625</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>0.92459999999999998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>0.1666</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="9">
         <v>-0.26960000000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="9">
         <v>0.35849999999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="9">
         <v>0.95140000000000002</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="9">
         <v>0.12330000000000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="9">
         <v>1.2802</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="9">
         <v>-0.68079999999999996</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="9">
         <v>0.76339999999999997</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="9">
         <v>1.3451</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="9">
         <v>0.83550000000000002</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="9">
         <v>-0.12709999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="9">
         <v>-0.26690000000000003</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>0.37019999999999997</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>-0.61339999999999995</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>1.004</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="9">
         <v>-0.14119999999999999</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="9">
         <v>-0.37090000000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="9">
         <v>0.47349999999999998</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="9">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="9">
         <v>0.61880000000000002</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="9">
         <v>-0.2072</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="9">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="9">
         <v>0.55589999999999995</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="9">
         <v>0.58950000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="9">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>2.1524999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <v>-0.4526</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="9">
         <v>0.69169999999999998</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="9">
         <v>0.53420000000000001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="9">
         <v>2.2597999999999998</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="9">
         <v>-0.92320000000000002</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="9">
         <v>0.82930000000000004</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="9">
         <v>1.3828</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="9">
         <v>0.90039999999999998</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="9">
         <v>0.88880000000000003</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="9">
         <v>-1.0367</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="9">
         <v>-1.6758</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="9">
         <v>-0.49859999999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <v>0.38</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="9">
         <v>-0.12740000000000001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
         <v>-2.5268999999999999</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="9">
         <v>-1.9189000000000001</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="9">
         <v>0.54430000000000001</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="9">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="9">
         <v>4.07E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="9">
         <v>-1.3691</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="9">
         <v>-2.6627000000000001</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="9">
         <v>0.20280000000000001</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="9">
         <v>-0.27479999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="9">
         <v>-0.92859999999999998</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>-2.3E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <v>-0.36509999999999998</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="9">
         <v>-0.32779999999999998</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
         <v>-0.4798</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="9">
         <v>0.20469999999999999</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="9">
         <v>0.32219999999999999</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="9">
         <v>-0.23769999999999999</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="9">
         <v>-0.63690000000000002</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="9">
         <v>-1.4226000000000001</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="9">
         <v>-0.52939999999999998</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="9">
         <v>0.29959999999999998</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="9">
         <v>0.28120000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="9">
         <v>-0.76749999999999996</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>-0.20330000000000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="9">
         <v>-0.91059999999999997</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="9">
         <v>-0.72340000000000004</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="9">
         <v>-1.9049</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="9">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="9">
         <v>-0.25700000000000001</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="9">
         <v>-0.16869999999999999</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="9">
         <v>-1.0667</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="9">
         <v>0.1028</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="9">
         <v>-2.86E-2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="9">
         <v>0.4798</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="9">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="9">
         <v>-1.1269</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>-0.21</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <v>-0.66759999999999997</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="9">
         <v>-1.6963999999999999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
         <v>-0.34960000000000002</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="9">
         <v>1.2371000000000001</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="9">
         <v>0.94320000000000004</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="9">
         <v>-0.36209999999999998</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="9">
         <v>-1.8086</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="9">
         <v>0.66169999999999995</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="9">
         <v>0.61919999999999997</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="9">
         <v>0.20499999999999999</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="9">
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="9">
         <v>-0.20250000000000001</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="9">
         <v>-1.0587</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <v>-0.64019999999999999</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="9">
         <v>-2.2532000000000001</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="9">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="9">
         <v>-1.6116999999999999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="9">
         <v>-0.104</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="9">
         <v>-0.1487</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="9">
         <v>-0.93940000000000001</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="9">
         <v>-0.59009999999999996</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="9">
         <v>0.13289999999999999</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="9">
         <v>-0.72219999999999995</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="9">
         <v>-0.51170000000000004</v>
       </c>
     </row>
@@ -1829,626 +2100,623 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>15</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>15</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1">
         <v>30</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>30</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>30</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1">
         <v>60</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1">
         <v>60</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1">
         <v>60</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>-0.66849999999999998</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>-0.40660000000000002</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>-0.43219999999999997</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>-0.1191</v>
       </c>
-      <c r="F2" s="7">
-        <v>-0.38300000000000001</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.26929999999999998</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6">
         <v>-7.5700000000000003E-2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>0.59750000000000003</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <v>-0.3216</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="6">
         <v>0.4778</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>-0.3155</v>
       </c>
-      <c r="C3" s="7">
-        <v>1.4649000000000001</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6">
         <v>-0.80289999999999995</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>0.5141</v>
       </c>
-      <c r="F3" s="7">
-        <v>-0.76539999999999997</v>
-      </c>
-      <c r="G3" s="7">
-        <v>-1.1456</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6">
         <v>0.50960000000000005</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>-0.29570000000000002</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>-0.22570000000000001</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>-0.94040000000000001</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>-1.3326</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>0.96209999999999996</v>
       </c>
-      <c r="C4" s="7">
-        <v>-0.3518</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6">
         <v>0.31009999999999999</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>-0.15890000000000001</v>
       </c>
-      <c r="F4" s="7">
-        <v>0.58689999999999998</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="F4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>0.43419999999999997</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>1.0717000000000001</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>1.1548</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="6">
         <v>0.54459999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.17119999999999999</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6">
         <v>-1.9531000000000001</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>-0.21510000000000001</v>
       </c>
-      <c r="F5" s="7">
-        <v>-1.4630000000000001</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="6">
         <v>-2.2646000000000002</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>1.4417</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-1.2318</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-0.14030000000000001</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>-1.9814000000000001</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="6">
         <v>-1.2117</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>-0.91690000000000005</v>
       </c>
-      <c r="C6" s="7">
-        <v>1.2958000000000001</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="6">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>-7.1199999999999999E-2</v>
       </c>
-      <c r="F6" s="7">
-        <v>1.5911</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1.2565999999999999</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="F6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="6">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>-0.31259999999999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>1.5823</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>2.7766999999999999</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>0.9466</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="6">
         <v>1.4664999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.33250000000000002</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="6">
         <v>0.29420000000000002</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="F7" s="7">
-        <v>0.67030000000000001</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.71640000000000004</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6">
         <v>0.33739999999999998</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>0.35539999999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>1.2329000000000001</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>0.2175</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>-0.2056</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>0.57640000000000002</v>
       </c>
-      <c r="C8" s="7">
-        <v>-0.54890000000000005</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.24909999999999999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>0.90359999999999996</v>
       </c>
-      <c r="F8" s="7">
-        <v>-0.5302</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="6">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>1.0787</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>-0.1371</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>0.40110000000000001</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>0.58789999999999998</v>
       </c>
-      <c r="C9" s="7">
-        <v>1.5125</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.36570000000000003</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>0.68759999999999999</v>
       </c>
-      <c r="F9" s="7">
-        <v>-7.7499999999999999E-2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>-0.52200000000000002</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="6">
         <v>0.30730000000000002</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-0.36349999999999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>-0.12959999999999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>1.7000999999999999</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="6">
         <v>0.14030000000000001</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>1.0931999999999999</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.47260000000000002</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="6">
         <v>1.1254999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>0.62629999999999997</v>
       </c>
-      <c r="F10" s="7">
-        <v>0.52559999999999996</v>
-      </c>
-      <c r="G10" s="7">
-        <v>-0.33250000000000002</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="F10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="6">
         <v>1.6525000000000001</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>-0.1135</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>0.61</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>0.67210000000000003</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>0.95820000000000005</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>0.31269999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>1.2589999999999999</v>
       </c>
-      <c r="C11" s="7">
-        <v>1.0717000000000001</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F11" s="7">
-        <v>-1.9025000000000001</v>
-      </c>
-      <c r="G11" s="7">
-        <v>-0.44059999999999999</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="6">
         <v>0.56589999999999996</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>1.258</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>0.49270000000000003</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>0.29249999999999998</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>1.6588000000000001</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="6">
         <v>1.1318999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>-0.4763</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>-0.45290000000000002</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>-0.33360000000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>-0.54890000000000005</v>
       </c>
-      <c r="F12" s="7">
-        <v>2.5266000000000002</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.40410000000000001</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="6">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>-0.2142</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>-0.31009999999999999</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <v>0.90500000000000003</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="6">
         <v>0.23119999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>-0.1331</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.1802</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="6">
         <v>-0.32140000000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="F13" s="7">
-        <v>0.85260000000000002</v>
-      </c>
-      <c r="G13" s="7">
-        <v>-0.43319999999999997</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="6">
         <v>0.22489999999999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>-0.70350000000000001</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="6">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="6">
         <v>-0.44190000000000002</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="6">
         <v>0.92220000000000002</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="6">
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>-1.2421</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.33439999999999998</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="6">
         <v>-0.73499999999999999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>0.29349999999999998</v>
       </c>
-      <c r="F14" s="7">
-        <v>-1.2684</v>
-      </c>
-      <c r="G14" s="7">
-        <v>-0.87819999999999998</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="F14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="6">
         <v>1.0021</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>-0.76680000000000004</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="6">
         <v>0.97960000000000003</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="6">
         <v>-5.28E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="6">
         <v>-0.86929999999999996</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="6">
         <v>0.55789999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>-1.3433999999999999</v>
       </c>
-      <c r="C15" s="7">
-        <v>-0.93540000000000001</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6">
         <v>-1.7083999999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="F15" s="7">
-        <v>-5.8900000000000001E-2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>-0.71579999999999999</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="F15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="6">
         <v>-0.11550000000000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>-2.4802</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="6">
         <v>0.66569999999999996</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="6">
         <v>0.53159999999999996</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="6">
         <v>-1.3987000000000001</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="6">
         <v>0.29849999999999999</v>
       </c>
     </row>
@@ -2462,626 +2730,623 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>15</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>15</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1">
         <v>30</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>30</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>30</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1">
         <v>60</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1">
         <v>60</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1">
         <v>60</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>1.452</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>0.36680000000000001</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>0.14649999999999999</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>1.0023</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>1.6619999999999999</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>2.9944999999999999</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>1.3996</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>1.9426000000000001</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>0.29120000000000001</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <v>0.62819999999999998</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>3.2391000000000001</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="6">
         <v>2.5788000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>-0.51839999999999997</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>1.3267</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>1.0101</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>-6.1600000000000002E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>0.36909999999999998</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>-0.19980000000000001</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>1.1081000000000001</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>0.19889999999999999</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>1.6447000000000001</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>-1.6053999999999999</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>0.70450000000000002</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>0.76729999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>0.59570000000000001</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>0.85489999999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>-0.67589999999999995</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>0.63429999999999997</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>-8.6099999999999996E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>-1.0684</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>0.30230000000000001</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>0.1085</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>-0.44600000000000001</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>0.80179999999999996</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="6">
         <v>-0.161</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>3.3136000000000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>1.8683000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>0.90639999999999998</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>0.2848</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>1.2425999999999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>1.4451000000000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>0.91479999999999995</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>-1.32E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>1.2979000000000001</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>0.10589999999999999</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>-0.29759999999999998</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="6">
         <v>0.22559999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>0.97719999999999996</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>1.4618</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>-0.71560000000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>0.78990000000000005</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>1.5734999999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>1.1125</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>1.1015999999999999</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>0.51459999999999995</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>1.3432999999999999</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>0.95009999999999994</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>1.5648</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="6">
         <v>1.7134</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>0.54879999999999995</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>0.81589999999999996</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>-6.88E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>0.32479999999999998</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>0.32790000000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>1.2747999999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>0.54049999999999998</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>0.36120000000000002</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>0.48139999999999999</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>-8.1100000000000005E-2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>0.31580000000000003</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>0.80289999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>1.0774999999999999</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>-1.2575000000000001</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>0.96560000000000001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>0.16689999999999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>0.93940000000000001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>0.64170000000000005</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>0.58140000000000003</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>2.5089000000000001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>0.85389999999999999</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>1.4608000000000001</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>0.77939999999999998</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>-0.28699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>1.8202</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>0.32590000000000002</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-2.2749999999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>0.2167</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>0.64400000000000002</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>0.54649999999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-8.7300000000000003E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>0.53939999999999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>1.6167</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="6">
         <v>2.0903</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>0.98519999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>-0.41570000000000001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>1.2987</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>1.3915999999999999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>1.0549999999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>-0.64339999999999997</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>2.4701</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>2.3169</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>1.2747999999999999</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>1.2483</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>0.23849999999999999</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>1.2221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>0.8397</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>0.85729999999999995</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>0.22919999999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>0.6421</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>1.1875</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>0.21609999999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>0.96419999999999995</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>0.7419</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>0.10879999999999999</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>0.65849999999999997</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="6">
         <v>0.2671</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>0.1741</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>-0.5323</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>-1.2532000000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>-8.0500000000000002E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>-0.3044</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>0.44</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>-1.0186999999999999</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>-0.56210000000000004</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>-0.88380000000000003</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <v>0.9617</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="6">
         <v>-0.89629999999999999</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="6">
         <v>-0.27239999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>-0.52149999999999996</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>-1.3444</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>0.48070000000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>-5.5100000000000003E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>-0.29949999999999999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>-0.40570000000000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>-0.4289</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="7">
         <v>-0.1026</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="6">
         <v>-0.99909999999999999</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="6">
         <v>0.47510000000000002</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="6">
         <v>0.2162</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>-0.70220000000000005</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>0.54079999999999995</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>-4.4299999999999999E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>0.54059999999999997</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>0.81179999999999997</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>0.91839999999999999</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>2.4355000000000002</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>1.1496</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="6">
         <v>1.0065999999999999</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="6">
         <v>-0.29620000000000002</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="6">
         <v>0.35639999999999999</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="6">
         <v>1.0390999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>0.45540000000000003</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>0.56440000000000001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>-1.9400000000000001E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>0.82110000000000005</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>1.1649</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>0.37130000000000002</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>0.6099</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>0.92059999999999997</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="6">
         <v>0.9647</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="6">
         <v>0.49099999999999999</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="6">
         <v>0.92530000000000001</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="6">
         <v>1.2979000000000001</v>
       </c>
     </row>
@@ -3095,626 +3360,623 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>15</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>15</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1">
         <v>30</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>30</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>30</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1">
         <v>60</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1">
         <v>60</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1">
         <v>60</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>-0.39429999999999998</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>3.0979999999999999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>-0.78180000000000005</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>0.53659999999999997</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>1.0477000000000001</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>1.9388000000000001</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>1.9984999999999999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>1.948</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>2.8677999999999999</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <v>3.26</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>2.2513000000000001</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="6">
         <v>1.9187000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>1.5094000000000001</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>0.40570000000000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>0.59989999999999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>1.2909999999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>1.5787</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>-0.50419999999999998</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>1.659</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>1.728</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>0.4889</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>-0.29909999999999998</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>0.98629999999999995</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>0.95779999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>-0.41689999999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>0.6492</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>-0.12590000000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>0.71489999999999998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>0.29320000000000002</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>-0.3901</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>0.2321</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>0.92379999999999995</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>0.31740000000000002</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>-2.52E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="6">
         <v>1.0246</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>0.41020000000000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>-0.92030000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>0.37859999999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>-0.81689999999999996</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>-1.4461999999999999</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>-0.30249999999999999</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>-0.37269999999999998</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-0.2195</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-1.1638999999999999</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>0.26190000000000002</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="6">
         <v>-0.52849999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>2.9630999999999998</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>1.0226999999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>-1.8079000000000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>2.6496</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>1.8896999999999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>1.3274999999999999</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>-2.4363000000000001</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>1.3018000000000001</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>-0.26040000000000002</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>2.3205</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="6">
         <v>-0.2676</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>0.15079999999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>-0.49149999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>0.75170000000000003</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>0.12920000000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>0.51680000000000004</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>0.4098</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>0.48970000000000002</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>0.37419999999999998</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>-0.43280000000000002</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>0.47270000000000001</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>1.0011000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>0.83460000000000001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>0.54579999999999995</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>-0.40350000000000003</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>0.5827</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>1.0075000000000001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>0.80379999999999996</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>1.1451</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>0.6532</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>1.4213</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>0.75490000000000002</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>0.33239999999999997</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>0.34039999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>0.94730000000000003</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>0.85960000000000003</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-0.62880000000000003</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>0.19020000000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-8.9499999999999996E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>2.07E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-0.13739999999999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>0.23630000000000001</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>0.48659999999999998</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="6">
         <v>-0.49930000000000002</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>0.58530000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>0.89349999999999996</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>3.44E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>0.92530000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>0.8125</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>0.4466</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>0.3866</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>-0.1762</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>0.49059999999999998</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>0.49409999999999998</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>0.45229999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>-0.19409999999999999</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>-0.19769999999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>0.32219999999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>-2.3199999999999998E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>0.40579999999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>-0.84</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>0.4143</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="7">
         <v>-6.6E-3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="7">
         <v>0.154</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>-0.1119</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>0.41210000000000002</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="6">
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>0.85699999999999998</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>0.39439999999999997</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>-1.01E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>-0.85629999999999995</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>-0.1573</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>-0.1171</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="7">
         <v>-0.1361</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>0.3775</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <v>0.45390000000000003</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="6">
         <v>0.33310000000000001</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="6">
         <v>0.20960000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>-3.9300000000000002E-2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>0.14910000000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>-0.96150000000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>0.69450000000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>-1.177</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>0.155</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>-1.3154999999999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>-0.11840000000000001</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="6">
         <v>-1.0330999999999999</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="6">
         <v>-0.74029999999999996</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="6">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>-0.87780000000000002</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>-0.54210000000000003</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>-1.4449000000000001</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>-0.64190000000000003</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>-0.98599999999999999</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>-2.24E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>-0.44590000000000002</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>-0.13830000000000001</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="6">
         <v>0.93240000000000001</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="6">
         <v>1.2888999999999999</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="6">
         <v>0.65710000000000002</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="6">
         <v>0.97740000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>-1.7099</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>-1.3897999999999999</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>-2.1356000000000002</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>-1.6841999999999999</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>-0.12379999999999999</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>-1.0174000000000001</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>0.37</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>-1.6722999999999999</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="6">
         <v>-0.25900000000000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="6">
         <v>-0.20080000000000001</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="6">
         <v>-1.5284</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="6">
         <v>-1.0412999999999999</v>
       </c>
     </row>
@@ -3728,626 +3990,623 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>15</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>15</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1">
         <v>30</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>30</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>30</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1">
         <v>60</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1">
         <v>60</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1">
         <v>60</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
         <v>0.62390000000000001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>0.81840000000000002</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>1.4916</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>-0.8397</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>0.88670000000000004</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>1.2386999999999999</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>2.2606000000000002</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>0.32929999999999998</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>1.2067000000000001</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <v>1.7983</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>-0.70660000000000001</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="6">
         <v>1.0147999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>-0.53159999999999996</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>-0.22209999999999999</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>1.0726</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>-0.99180000000000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>0.38919999999999999</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>0.33529999999999999</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>-0.29570000000000002</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>-0.45029999999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>0.28920000000000001</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>1.2637</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>-0.80569999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>-0.39379999999999998</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>-0.97989999999999999</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>0.36030000000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>-0.56820000000000004</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>-7.2800000000000004E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>-0.186</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>0.29170000000000001</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>-0.1706</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>0.29249999999999998</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="6">
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>0.2944</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>-1.0325</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>-0.34420000000000001</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>0.89370000000000005</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>-1.5780000000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>-1.4498</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>-0.73839999999999995</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>-0.2666</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-1.5417000000000001</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-3.0545</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>1.8973</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="6">
         <v>-0.88439999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>1.0058</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>2.0181</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>0.78879999999999995</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>-0.20660000000000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>0.3846</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>0.1787</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>0.1767</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>0.48980000000000001</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>0.83540000000000003</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="6">
         <v>0.46439999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>-0.12839999999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>-0.26989999999999997</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>-0.22539999999999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>0.74729999999999996</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>0.68830000000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>-7.1499999999999994E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>1.3467</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>0.60419999999999996</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>1.385</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>0.1729</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>0.1439</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>0.90949999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>-0.32290000000000002</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>-0.37169999999999997</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>-0.80130000000000001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>0.4516</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>-0.37780000000000002</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>-0.32479999999999998</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>-0.47610000000000002</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>0.95050000000000001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>-0.2303</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>-0.56030000000000002</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>1.2226999999999999</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>0.57889999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>0.42170000000000002</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>-1.5840000000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-2.2523</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>1.9428000000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-1.5436000000000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>1.2756000000000001</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>-0.16350000000000001</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>-1.1823999999999999</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="6">
         <v>1.5390999999999999</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>1.5142</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>1.2329000000000001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>2.2441</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>0.49480000000000002</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>-0.69450000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>-0.83460000000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>1.8561000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>-0.52869999999999995</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>-0.60660000000000003</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>0.99839999999999995</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>1.3966000000000001</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>-0.15140000000000001</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>-0.58509999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>1.5366</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>0.55740000000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>1.0469999999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>1.0469999999999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>0.29699999999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>0.18429999999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>0.15820000000000001</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="7">
         <v>0.2132</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>1.7097</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>0.61980000000000002</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="7">
         <v>1.1648000000000001</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="7">
         <v>1.1648000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>0.52490000000000003</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>0.1762</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>-0.16950000000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>0.33610000000000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>1.0117</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>-0.54710000000000003</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>-0.14910000000000001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>0.26079999999999998</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>0.74080000000000001</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <v>-0.57830000000000004</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="6">
         <v>0.45569999999999999</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="6">
         <v>0.52290000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>-1.5273000000000001</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>-0.48859999999999998</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>-4.7199999999999999E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>-0.37409999999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>-0.86550000000000005</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>-1.1638999999999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>-0.26279999999999998</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="6">
         <v>-0.62990000000000002</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="6">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="6">
         <v>0.30349999999999999</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="6">
         <v>-0.54159999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>-0.182</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>-1.0702</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>-0.84470000000000001</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>-1.0067999999999999</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>0.1177</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>-0.35110000000000002</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>2.24E-2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>-0.61650000000000005</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="6">
         <v>0.77029999999999998</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="6">
         <v>-1.1442000000000001</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="6">
         <v>-0.80579999999999996</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="6">
         <v>0.14030000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>-2.4929000000000001</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>-0.45329999999999998</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>-0.22650000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>-1.1136999999999999</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>-0.91169999999999995</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>-0.248</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>-7.8299999999999995E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>-1.7543</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="6">
         <v>-0.77810000000000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="6">
         <v>-0.3231</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="6">
         <v>0.2596</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="6">
         <v>-2.0924</v>
       </c>
     </row>
@@ -4360,14 +4619,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4414,7 +4672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4461,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4508,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4555,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4602,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4649,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4696,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4743,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4790,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4837,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4884,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4931,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4978,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5025,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5081,14 +5339,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5135,7 +5392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5182,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5229,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5276,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5323,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5370,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5417,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5464,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5511,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5558,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5605,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5652,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -5699,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5746,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>

--- a/data/GRNmap_input_workbooks/14-gene_25-edges_NW_dCIN5_fam_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/14-gene_25-edges_NW_dCIN5_fam_Sigmoid_estimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13395" windowHeight="9015" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13395" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
   <si>
     <t>cols regulators/rows targets</t>
   </si>
@@ -149,126 +149,6 @@
   </si>
   <si>
     <t>production_rate</t>
-  </si>
-  <si>
-    <t>-0.383</t>
-  </si>
-  <si>
-    <t>0.2693</t>
-  </si>
-  <si>
-    <t>1.4649</t>
-  </si>
-  <si>
-    <t>-0.7654</t>
-  </si>
-  <si>
-    <t>-1.1456</t>
-  </si>
-  <si>
-    <t>-0.3518</t>
-  </si>
-  <si>
-    <t>0.5869</t>
-  </si>
-  <si>
-    <t>0.0341</t>
-  </si>
-  <si>
-    <t>0.1712</t>
-  </si>
-  <si>
-    <t>-1.463</t>
-  </si>
-  <si>
-    <t>0.3025</t>
-  </si>
-  <si>
-    <t>1.2958</t>
-  </si>
-  <si>
-    <t>1.5911</t>
-  </si>
-  <si>
-    <t>1.2566</t>
-  </si>
-  <si>
-    <t>0.3325</t>
-  </si>
-  <si>
-    <t>0.6703</t>
-  </si>
-  <si>
-    <t>0.7164</t>
-  </si>
-  <si>
-    <t>-0.5489</t>
-  </si>
-  <si>
-    <t>-0.5302</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>1.5125</t>
-  </si>
-  <si>
-    <t>-0.0775</t>
-  </si>
-  <si>
-    <t>-0.522</t>
-  </si>
-  <si>
-    <t>0.4726</t>
-  </si>
-  <si>
-    <t>0.5256</t>
-  </si>
-  <si>
-    <t>-0.3325</t>
-  </si>
-  <si>
-    <t>1.0717</t>
-  </si>
-  <si>
-    <t>-1.9025</t>
-  </si>
-  <si>
-    <t>-0.4406</t>
-  </si>
-  <si>
-    <t>2.5266</t>
-  </si>
-  <si>
-    <t>0.4041</t>
-  </si>
-  <si>
-    <t>0.1802</t>
-  </si>
-  <si>
-    <t>0.8526</t>
-  </si>
-  <si>
-    <t>-0.4332</t>
-  </si>
-  <si>
-    <t>0.3344</t>
-  </si>
-  <si>
-    <t>-1.2684</t>
-  </si>
-  <si>
-    <t>-0.8782</t>
-  </si>
-  <si>
-    <t>-0.9354</t>
-  </si>
-  <si>
-    <t>-0.0589</t>
-  </si>
-  <si>
-    <t>-0.7158</t>
   </si>
   <si>
     <t>estimate_params</t>
@@ -645,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +828,7 @@
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -956,7 +836,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
@@ -1139,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2100,7 +1980,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,11 +2042,11 @@
       <c r="E2" s="6">
         <v>-0.1191</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>41</v>
+      <c r="F2" s="10">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.26929999999999998</v>
       </c>
       <c r="H2" s="6">
         <v>-7.5700000000000003E-2</v>
@@ -2194,8 +2074,8 @@
       <c r="B3" s="6">
         <v>-0.3155</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
+      <c r="C3" s="10">
+        <v>1.4649000000000001</v>
       </c>
       <c r="D3" s="6">
         <v>-0.80289999999999995</v>
@@ -2203,11 +2083,11 @@
       <c r="E3" s="6">
         <v>0.5141</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>44</v>
+      <c r="F3" s="10">
+        <v>-0.76539999999999997</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1.1456</v>
       </c>
       <c r="H3" s="6">
         <v>0.50960000000000005</v>
@@ -2235,8 +2115,8 @@
       <c r="B4" s="6">
         <v>0.96209999999999996</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
+      <c r="C4" s="10">
+        <v>-0.3518</v>
       </c>
       <c r="D4" s="6">
         <v>0.31009999999999999</v>
@@ -2244,11 +2124,11 @@
       <c r="E4" s="6">
         <v>-0.15890000000000001</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
+      <c r="F4" s="10">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="H4" s="6">
         <v>0.48599999999999999</v>
@@ -2276,8 +2156,8 @@
       <c r="B5" s="6">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
+      <c r="C5" s="10">
+        <v>0.17119999999999999</v>
       </c>
       <c r="D5" s="6">
         <v>-1.9531000000000001</v>
@@ -2285,11 +2165,11 @@
       <c r="E5" s="6">
         <v>-0.21510000000000001</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
+      <c r="F5" s="10">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.30249999999999999</v>
       </c>
       <c r="H5" s="6">
         <v>-2.2646000000000002</v>
@@ -2317,8 +2197,8 @@
       <c r="B6" s="6">
         <v>-0.91690000000000005</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>51</v>
+      <c r="C6" s="10">
+        <v>1.2958000000000001</v>
       </c>
       <c r="D6" s="6">
         <v>0.42699999999999999</v>
@@ -2326,11 +2206,11 @@
       <c r="E6" s="6">
         <v>-7.1199999999999999E-2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>53</v>
+      <c r="F6" s="10">
+        <v>1.5911</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.2565999999999999</v>
       </c>
       <c r="H6" s="6">
         <v>0.39100000000000001</v>
@@ -2358,8 +2238,8 @@
       <c r="B7" s="6">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>54</v>
+      <c r="C7" s="10">
+        <v>0.33250000000000002</v>
       </c>
       <c r="D7" s="6">
         <v>0.29420000000000002</v>
@@ -2367,11 +2247,11 @@
       <c r="E7" s="6">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>56</v>
+      <c r="F7" s="10">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.71640000000000004</v>
       </c>
       <c r="H7" s="6">
         <v>0.33739999999999998</v>
@@ -2399,8 +2279,8 @@
       <c r="B8" s="7">
         <v>0.57640000000000002</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
+      <c r="C8" s="10">
+        <v>-0.54890000000000005</v>
       </c>
       <c r="D8" s="6">
         <v>0.24909999999999999</v>
@@ -2408,11 +2288,11 @@
       <c r="E8" s="6">
         <v>0.90359999999999996</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>59</v>
+      <c r="F8" s="10">
+        <v>-0.5302</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1.6E-2</v>
       </c>
       <c r="H8" s="6">
         <v>-9.9699999999999997E-2</v>
@@ -2440,8 +2320,8 @@
       <c r="B9" s="6">
         <v>0.58789999999999998</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
+      <c r="C9" s="10">
+        <v>1.5125</v>
       </c>
       <c r="D9" s="6">
         <v>0.36570000000000003</v>
@@ -2449,11 +2329,11 @@
       <c r="E9" s="6">
         <v>0.68759999999999999</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>62</v>
+      <c r="F9" s="10">
+        <v>-7.7499999999999999E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-0.52200000000000002</v>
       </c>
       <c r="H9" s="6">
         <v>0.30730000000000002</v>
@@ -2481,8 +2361,8 @@
       <c r="B10" s="6">
         <v>1.0931999999999999</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>63</v>
+      <c r="C10" s="10">
+        <v>0.47260000000000002</v>
       </c>
       <c r="D10" s="6">
         <v>1.1254999999999999</v>
@@ -2490,11 +2370,11 @@
       <c r="E10" s="6">
         <v>0.62629999999999997</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>65</v>
+      <c r="F10" s="10">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-0.33250000000000002</v>
       </c>
       <c r="H10" s="6">
         <v>1.6525000000000001</v>
@@ -2522,8 +2402,8 @@
       <c r="B11" s="6">
         <v>1.2589999999999999</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
+      <c r="C11" s="10">
+        <v>1.0717000000000001</v>
       </c>
       <c r="D11" s="6">
         <v>0.91600000000000004</v>
@@ -2531,11 +2411,11 @@
       <c r="E11" s="6">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>68</v>
+      <c r="F11" s="10">
+        <v>-1.9025000000000001</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-0.44059999999999999</v>
       </c>
       <c r="H11" s="6">
         <v>0.56589999999999996</v>
@@ -2572,11 +2452,11 @@
       <c r="E12" s="6">
         <v>-0.54890000000000005</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>70</v>
+      <c r="F12" s="10">
+        <v>2.5266000000000002</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.40410000000000001</v>
       </c>
       <c r="H12" s="6">
         <v>2.5700000000000001E-2</v>
@@ -2604,8 +2484,8 @@
       <c r="B13" s="6">
         <v>-0.1331</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
+      <c r="C13" s="10">
+        <v>0.1802</v>
       </c>
       <c r="D13" s="6">
         <v>-0.32140000000000002</v>
@@ -2613,11 +2493,11 @@
       <c r="E13" s="6">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>73</v>
+      <c r="F13" s="10">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-0.43319999999999997</v>
       </c>
       <c r="H13" s="6">
         <v>0.22489999999999999</v>
@@ -2645,8 +2525,8 @@
       <c r="B14" s="6">
         <v>-1.2421</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>74</v>
+      <c r="C14" s="10">
+        <v>0.33439999999999998</v>
       </c>
       <c r="D14" s="6">
         <v>-0.73499999999999999</v>
@@ -2654,11 +2534,11 @@
       <c r="E14" s="6">
         <v>0.29349999999999998</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>76</v>
+      <c r="F14" s="10">
+        <v>-1.2684</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-0.87819999999999998</v>
       </c>
       <c r="H14" s="6">
         <v>1.0021</v>
@@ -2686,8 +2566,8 @@
       <c r="B15" s="6">
         <v>-1.3433999999999999</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>77</v>
+      <c r="C15" s="10">
+        <v>-0.93540000000000001</v>
       </c>
       <c r="D15" s="6">
         <v>-1.7083999999999999</v>
@@ -2695,11 +2575,11 @@
       <c r="E15" s="6">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>79</v>
+      <c r="F15" s="10">
+        <v>-5.8900000000000001E-2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-0.71579999999999999</v>
       </c>
       <c r="H15" s="6">
         <v>-0.11550000000000001</v>
